--- a/Data/Processed/Angiosperms/missing_powo_ipni/Cyperaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Cyperaceae.xlsx
@@ -2577,7 +2577,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9452,7 +9452,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -10750,7 +10750,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -26183,7 +26183,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -28086,7 +28086,7 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -33894,7 +33894,7 @@
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
@@ -37279,7 +37279,7 @@
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -37367,7 +37367,7 @@
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -37455,7 +37455,7 @@
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
@@ -37543,7 +37543,7 @@
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
@@ -37741,7 +37741,7 @@
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -37939,7 +37939,7 @@
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -38192,7 +38192,7 @@
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -38280,7 +38280,7 @@
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -38423,7 +38423,7 @@
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -38731,7 +38731,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -44319,7 +44319,7 @@
       </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -52712,7 +52712,7 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -54175,7 +54175,7 @@
       </c>
       <c r="G965" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H965" t="inlineStr">
@@ -54185,7 +54185,7 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 2(1): 65. 1842 [1 Apr 1842] </t>
+          <t>Fl. Bras. (Martius) 2(1): 65. 1842 [1 Apr 1842]</t>
         </is>
       </c>
       <c r="J965" t="b">
@@ -54253,7 +54253,7 @@
       </c>
       <c r="G966" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H966" t="inlineStr">
@@ -54263,7 +54263,7 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allg. Bot. Z. Syst. 1: 225. 1895 </t>
+          <t>Allg. Bot. Z. Syst. 1: 225. 1895</t>
         </is>
       </c>
       <c r="J966" t="b">
@@ -54331,7 +54331,7 @@
       </c>
       <c r="G967" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
@@ -54341,7 +54341,7 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beitr. Cyper. pt. 2, 10. 1890 </t>
+          <t>Beitr. Cyper. pt. 2, 10. 1890</t>
         </is>
       </c>
       <c r="J967" t="b">
@@ -54409,7 +54409,7 @@
       </c>
       <c r="G968" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H968" t="inlineStr">
@@ -54419,7 +54419,7 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beitr. Cyper. 2: 5. 1890 </t>
+          <t>Beitr. Cyper. 2: 5. 1890</t>
         </is>
       </c>
       <c r="J968" t="b">
@@ -54487,7 +54487,7 @@
       </c>
       <c r="G969" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H969" t="inlineStr">
@@ -54497,7 +54497,7 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vidensk. Meddel. Naturhist. Foren. Kjøbenhavn 1894: 237. 1895 </t>
+          <t>Vidensk. Meddel. Naturhist. Foren. Kjøbenhavn 1894: 237. 1895</t>
         </is>
       </c>
       <c r="J969" t="b">
@@ -54565,7 +54565,7 @@
       </c>
       <c r="G970" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H970" t="inlineStr">
@@ -54575,7 +54575,7 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Misc. Inform. Kew, Addit. Ser. 8: 5. 1908 </t>
+          <t>Bull. Misc. Inform. Kew, Addit. Ser. 8: 5. 1908</t>
         </is>
       </c>
       <c r="J970" t="b">
@@ -54643,7 +54643,7 @@
       </c>
       <c r="G971" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H971" t="inlineStr">
@@ -54653,7 +54653,7 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rhodora 31: 241. 1929 </t>
+          <t>Rhodora 31: 241. 1929</t>
         </is>
       </c>
       <c r="J971" t="b">
@@ -54721,7 +54721,7 @@
       </c>
       <c r="G972" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H972" t="inlineStr">
@@ -54731,7 +54731,7 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allg. Bot. Z. Syst. 2: 20. 1896 </t>
+          <t>Allg. Bot. Z. Syst. 2: 20. 1896</t>
         </is>
       </c>
       <c r="J972" t="b">
@@ -54799,7 +54799,7 @@
       </c>
       <c r="G973" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H973" t="inlineStr">
@@ -54809,7 +54809,7 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 73(2): 118, fig. 6. 1943 [18 Jun 1943] </t>
+          <t>Bot. Jahrb. Syst. 73(2): 118, fig. 6. 1943 [18 Jun 1943]</t>
         </is>
       </c>
       <c r="J973" t="b">
@@ -54877,7 +54877,7 @@
       </c>
       <c r="G974" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H974" t="inlineStr">
@@ -54887,7 +54887,7 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 24: 281, fig. 1, J-T. 1972 </t>
+          <t>Brittonia 24: 281, fig. 1, J-T. 1972</t>
         </is>
       </c>
       <c r="J974" t="b">
@@ -54955,7 +54955,7 @@
       </c>
       <c r="G975" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H975" t="inlineStr">
@@ -54965,7 +54965,7 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kew Bull. 42(4): 891, fig. 1987 [11 Nov 1987] </t>
+          <t>Kew Bull. 42(4): 891, fig. 1987 [11 Nov 1987]</t>
         </is>
       </c>
       <c r="J975" t="b">
@@ -55033,7 +55033,7 @@
       </c>
       <c r="G976" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H976" t="inlineStr">
@@ -55043,7 +55043,7 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beitr. Cyper. pt. 1, 26. 1888 </t>
+          <t>Beitr. Cyper. pt. 1, 26. 1888</t>
         </is>
       </c>
       <c r="J976" t="b">
@@ -55111,7 +55111,7 @@
       </c>
       <c r="G977" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H977" t="inlineStr">
@@ -55121,7 +55121,7 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beitr. Cyper. pt. 2, 16. 1890 </t>
+          <t>Beitr. Cyper. pt. 2, 16. 1890</t>
         </is>
       </c>
       <c r="J977" t="b">
@@ -55189,7 +55189,7 @@
       </c>
       <c r="G978" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H978" t="inlineStr">
@@ -55199,7 +55199,7 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vidensk. Meddel. Naturhist. Foren. Kjøbenhavn 1894: 238. 1895 </t>
+          <t>Vidensk. Meddel. Naturhist. Foren. Kjøbenhavn 1894: 238. 1895</t>
         </is>
       </c>
       <c r="J978" t="b">
@@ -55267,7 +55267,7 @@
       </c>
       <c r="G979" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H979" t="inlineStr">
@@ -55277,7 +55277,7 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vidensk. Meddel. Naturhist. Foren. Kjøbenhavn 1894: 240. 1895 </t>
+          <t>Vidensk. Meddel. Naturhist. Foren. Kjøbenhavn 1894: 240. 1895</t>
         </is>
       </c>
       <c r="J979" t="b">
